--- a/Procesos - Nuevos Nombres.xlsx
+++ b/Procesos - Nuevos Nombres.xlsx
@@ -11,6 +11,7 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="doc - Vista personalizada" guid="{3F686087-C31C-4EEC-BE5B-AC011B73AA3F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="585" activeSheetId="1"/>
     <customWorkbookView name="operador - Vista personalizada" guid="{3B09788D-2DAC-485A-BC71-A95D315746D9}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="773" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
@@ -550,9 +551,6 @@
     <t>Emitir Cartas</t>
   </si>
   <si>
-    <t>Recepcionar Donaciones</t>
-  </si>
-  <si>
     <t>Emitir y Declarar Certificados de Donación</t>
   </si>
   <si>
@@ -583,15 +581,6 @@
     <t>Auditar al Departamento de Proyectos</t>
   </si>
   <si>
-    <t>Elaborar comunicación interna</t>
-  </si>
-  <si>
-    <t>Elaborar campaña periodística</t>
-  </si>
-  <si>
-    <t>Elaborar campaña publicitaria</t>
-  </si>
-  <si>
     <t>Canalizar Donaciones</t>
   </si>
   <si>
@@ -625,9 +614,6 @@
     <t>Pagar los Comprobantes de Obligaciones y Servicios</t>
   </si>
   <si>
-    <t>Evaluar y entregar Fondos</t>
-  </si>
-  <si>
     <t>Elaborar Informe Financiero para Empresa Financiadora</t>
   </si>
   <si>
@@ -640,9 +626,6 @@
     <t>Ejecutar Talleres de Pastoral y Educación en Valores</t>
   </si>
   <si>
-    <t>Ejecutar Retirp de Pastoral y Educación en Valores</t>
-  </si>
-  <si>
     <t>Planificar Actividades del Departamento de Formación</t>
   </si>
   <si>
@@ -652,21 +635,12 @@
     <t>Crear Programa Educativo Rural</t>
   </si>
   <si>
-    <t>Planificar los Programas Educativos Rurales</t>
-  </si>
-  <si>
     <t>Realizar Seguimiento a los Programas Educativos Rurales</t>
   </si>
   <si>
     <t>Realizar Acompañamiento a los Programas Educativos Rurales</t>
   </si>
   <si>
-    <t>Realizar Capacitación de Educación Técnica</t>
-  </si>
-  <si>
-    <t>Realizar Capacitación del Departamento de Formación</t>
-  </si>
-  <si>
     <t>Captar Recursos</t>
   </si>
   <si>
@@ -682,9 +656,6 @@
     <t>Pagar Presupuesto de Construcción</t>
   </si>
   <si>
-    <t>Realizar Seguimiento y Entrega de la Obra</t>
-  </si>
-  <si>
     <t>Realizar Voluntariado</t>
   </si>
   <si>
@@ -703,21 +674,12 @@
     <t>Realizar Arqueo de Caja</t>
   </si>
   <si>
-    <t>Recibir y Pagar comprobantes de proveedores</t>
-  </si>
-  <si>
     <t>Recibir y Depositar efectivo a los Bancos</t>
   </si>
   <si>
     <t>Solicitar Personal</t>
   </si>
   <si>
-    <t>Despedir o ejecutar Retiro del Personal</t>
-  </si>
-  <si>
-    <t>Contratar e Inducir al Personal</t>
-  </si>
-  <si>
     <t>Evaluar Postulantes</t>
   </si>
   <si>
@@ -725,13 +687,52 @@
   </si>
   <si>
     <t>Realizar Inventario</t>
+  </si>
+  <si>
+    <t>Recibir Donaciones</t>
+  </si>
+  <si>
+    <t>Realizar Capacitaciones del Departamento de Formación</t>
+  </si>
+  <si>
+    <t>Realizar Capacitaciones de Educación Técnica</t>
+  </si>
+  <si>
+    <t>Ejecutar Retiros de Pastoral y Educación en Valores</t>
+  </si>
+  <si>
+    <t>Planificar Actividades de los Programas Educativos Rurales</t>
+  </si>
+  <si>
+    <t>Evaluar y Entregar Fondos</t>
+  </si>
+  <si>
+    <t>Realizar Seguimiento y Entregar la Obra</t>
+  </si>
+  <si>
+    <t>Contratar e Inducir al Nuevo Personal</t>
+  </si>
+  <si>
+    <t>Despedir o Ejecutar Retiro del Personal</t>
+  </si>
+  <si>
+    <t>Recibir y Pagar Comprobantes de Proveedores</t>
+  </si>
+  <si>
+    <t>Elaborar Campaña Publicitaria</t>
+  </si>
+  <si>
+    <t>Elaborar Campaña Periodística</t>
+  </si>
+  <si>
+    <t>Elaborar Comunicación Interna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,22 +743,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -831,31 +828,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3F6CAEBF-3DE1-4E9D-93FC-6960104918B6}" diskRevisions="1" revisionId="91" version="15">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0E1B171B-86BE-47A4-B3C8-66D5554C42ED}" diskRevisions="1" revisionId="104" version="16">
   <header guid="{DB6B1957-69B7-47D7-82FA-54B597373A3A}" dateTime="2011-10-24T18:16:34" maxSheetId="2" userName="operador" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -948,6 +948,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{0E1B171B-86BE-47A4-B3C8-66D5554C42ED}" dateTime="2011-10-24T22:25:39" maxSheetId="2" userName="doc" r:id="rId16" minRId="92" maxRId="104">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -1278,6 +1283,203 @@
   </rcc>
   <rcv guid="{3B09788D-2DAC-485A-BC71-A95D315746D9}" action="delete"/>
   <rcv guid="{3B09788D-2DAC-485A-BC71-A95D315746D9}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="D4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="D5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B3:D87" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="92" sId="1">
+    <oc r="D13" t="inlineStr">
+      <is>
+        <t>Recepcionar Donaciones</t>
+      </is>
+    </oc>
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>Recibir Donaciones</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="93" sId="1">
+    <oc r="D30" t="inlineStr">
+      <is>
+        <t>Realizar Capacitación del Departamento de Formación</t>
+      </is>
+    </oc>
+    <nc r="D30" t="inlineStr">
+      <is>
+        <t>Realizar Capacitaciones del Departamento de Formación</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="94" sId="1">
+    <oc r="D21" t="inlineStr">
+      <is>
+        <t>Realizar Capacitación de Educación Técnica</t>
+      </is>
+    </oc>
+    <nc r="D21" t="inlineStr">
+      <is>
+        <t>Realizar Capacitaciones de Educación Técnica</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="95" sId="1">
+    <oc r="D27" t="inlineStr">
+      <is>
+        <t>Ejecutar Retirp de Pastoral y Educación en Valores</t>
+      </is>
+    </oc>
+    <nc r="D27" t="inlineStr">
+      <is>
+        <t>Ejecutar Retiros de Pastoral y Educación en Valores</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="96" sId="1">
+    <oc r="D60" t="inlineStr">
+      <is>
+        <t>Planificar los Programas Educativos Rurales</t>
+      </is>
+    </oc>
+    <nc r="D60" t="inlineStr">
+      <is>
+        <t>Planificar Actividades de los Programas Educativos Rurales</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="97" sId="1">
+    <oc r="D55" t="inlineStr">
+      <is>
+        <t>Evaluar y entregar Fondos</t>
+      </is>
+    </oc>
+    <nc r="D55" t="inlineStr">
+      <is>
+        <t>Evaluar y Entregar Fondos</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="98" sId="1">
+    <oc r="D35" t="inlineStr">
+      <is>
+        <t>Realizar Seguimiento y Entrega de la Obra</t>
+      </is>
+    </oc>
+    <nc r="D35" t="inlineStr">
+      <is>
+        <t>Realizar Seguimiento y Entregar la Obra</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="99" sId="1">
+    <oc r="D47" t="inlineStr">
+      <is>
+        <t>Contratar e Inducir al Personal</t>
+      </is>
+    </oc>
+    <nc r="D47" t="inlineStr">
+      <is>
+        <t>Contratar e Inducir al Nuevo Personal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="100" sId="1">
+    <oc r="D50" t="inlineStr">
+      <is>
+        <t>Despedir o ejecutar Retiro del Personal</t>
+      </is>
+    </oc>
+    <nc r="D50" t="inlineStr">
+      <is>
+        <t>Despedir o Ejecutar Retiro del Personal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="101" sId="1">
+    <oc r="D42" t="inlineStr">
+      <is>
+        <t>Recibir y Pagar comprobantes de proveedores</t>
+      </is>
+    </oc>
+    <nc r="D42" t="inlineStr">
+      <is>
+        <t>Recibir y Pagar Comprobantes de Proveedores</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="D4:D5">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="102" sId="1">
+    <oc r="D9" t="inlineStr">
+      <is>
+        <t>Elaborar campaña publicitaria</t>
+      </is>
+    </oc>
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>Elaborar Campaña Publicitaria</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="103" sId="1">
+    <oc r="D10" t="inlineStr">
+      <is>
+        <t>Elaborar campaña periodística</t>
+      </is>
+    </oc>
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>Elaborar Campaña Periodística</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="104" sId="1">
+    <oc r="D11" t="inlineStr">
+      <is>
+        <t>Elaborar comunicación interna</t>
+      </is>
+    </oc>
+    <nc r="D11" t="inlineStr">
+      <is>
+        <t>Elaborar Comunicación Interna</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{3F686087-C31C-4EEC-BE5B-AC011B73AA3F}" action="add"/>
 </revisions>
 </file>
 
@@ -2141,16 +2343,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D87" sqref="C6:D87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -2173,7 +2375,7 @@
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2184,7 +2386,7 @@
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2218,7 +2420,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2229,7 +2431,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2240,7 +2442,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2251,7 +2453,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2273,7 +2475,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2284,7 +2486,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2295,7 +2497,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2306,7 +2508,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,7 +2519,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2328,7 +2530,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2339,7 +2541,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2350,7 +2552,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2361,7 +2563,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2372,7 +2574,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2383,7 +2585,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2394,7 +2596,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,7 +2607,7 @@
         <v>45</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,7 +2618,7 @@
         <v>47</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2427,7 +2629,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2438,7 +2640,7 @@
         <v>51</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2449,7 +2651,7 @@
         <v>53</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2460,7 +2662,7 @@
         <v>55</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2471,7 +2673,7 @@
         <v>57</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2482,7 +2684,7 @@
         <v>59</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2493,7 +2695,7 @@
         <v>61</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2706,7 @@
         <v>63</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2515,7 +2717,7 @@
         <v>65</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2548,7 +2750,7 @@
         <v>71</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2559,7 +2761,7 @@
         <v>73</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2570,7 +2772,7 @@
         <v>75</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2581,7 +2783,7 @@
         <v>77</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2592,7 +2794,7 @@
         <v>79</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2603,7 +2805,7 @@
         <v>81</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2614,7 +2816,7 @@
         <v>83</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2625,7 +2827,7 @@
         <v>85</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,7 +2838,7 @@
         <v>87</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2647,7 +2849,7 @@
         <v>89</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2658,7 +2860,7 @@
         <v>91</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2669,7 +2871,7 @@
         <v>93</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2691,7 +2893,7 @@
         <v>97</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2702,7 +2904,7 @@
         <v>99</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2713,7 +2915,7 @@
         <v>101</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2724,7 +2926,7 @@
         <v>103</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2735,7 +2937,7 @@
         <v>105</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2746,7 +2948,7 @@
         <v>107</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2757,7 +2959,7 @@
         <v>109</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2768,7 +2970,7 @@
         <v>169</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2779,7 +2981,7 @@
         <v>111</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2790,7 +2992,7 @@
         <v>113</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2801,7 +3003,7 @@
         <v>115</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2812,7 +3014,7 @@
         <v>117</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2823,7 +3025,7 @@
         <v>119</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2834,7 +3036,7 @@
         <v>121</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2856,7 +3058,7 @@
         <v>125</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2878,7 +3080,7 @@
         <v>129</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2922,7 +3124,7 @@
         <v>137</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2933,7 +3135,7 @@
         <v>139</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2944,7 +3146,7 @@
         <v>141</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3092,13 +3294,18 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{3F686087-C31C-4EEC-BE5B-AC011B73AA3F}">
+      <selection activeCell="D12" sqref="D12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{3B09788D-2DAC-485A-BC71-A95D315746D9}" topLeftCell="A2">
       <selection activeCell="D87" sqref="C6:D87"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Procesos - Nuevos Nombres.xlsx
+++ b/Procesos - Nuevos Nombres.xlsx
@@ -18,14 +18,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="235">
   <si>
     <t>N°</t>
   </si>
   <si>
-    <t>ACTIVIDAD</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
     <t>Codificación de Proyecto</t>
   </si>
   <si>
-    <t>Nuevo Nombre de Proceso</t>
-  </si>
-  <si>
     <t>Elaborar del Plan Operativo Institucional</t>
   </si>
   <si>
@@ -563,15 +557,9 @@
     <t>Participar en concurso</t>
   </si>
   <si>
-    <t>Preparación de Retiro</t>
-  </si>
-  <si>
     <t>Realizar Prueba Ministerial</t>
   </si>
   <si>
-    <t>Planificar Actividades</t>
-  </si>
-  <si>
     <t>Realizar Seguimiento del Personal</t>
   </si>
   <si>
@@ -726,6 +714,15 @@
   </si>
   <si>
     <t>Elaborar Comunicación Interna</t>
+  </si>
+  <si>
+    <t>Preparar Retiro</t>
+  </si>
+  <si>
+    <t>NUEVO NOMBRE DEL PROCESO</t>
+  </si>
+  <si>
+    <t>ANTIGUO NOMBRE DEL PROCESO</t>
   </si>
 </sst>
 </file>
@@ -777,24 +774,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -813,17 +797,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -833,29 +806,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,7 +845,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0E1B171B-86BE-47A4-B3C8-66D5554C42ED}" diskRevisions="1" revisionId="104" version="16">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1889D884-D40B-4F39-B8C6-93FF3351118E}" diskRevisions="1" revisionId="108" version="17">
   <header guid="{DB6B1957-69B7-47D7-82FA-54B597373A3A}" dateTime="2011-10-24T18:16:34" maxSheetId="2" userName="operador" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -953,6 +926,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{1889D884-D40B-4F39-B8C6-93FF3351118E}" dateTime="2011-10-24T23:31:35" maxSheetId="2" userName="doc" r:id="rId17" minRId="105" maxRId="108">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -1479,6 +1457,128 @@
       </is>
     </nc>
   </rcc>
+  <rcv guid="{3F686087-C31C-4EEC-BE5B-AC011B73AA3F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="105" sId="1">
+    <oc r="D72" t="inlineStr">
+      <is>
+        <t>Planificar Actividades</t>
+      </is>
+    </oc>
+    <nc r="D72" t="inlineStr">
+      <is>
+        <t>Planificación de Actividades</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="D72" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="D72">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="106" sId="1">
+    <oc r="D74" t="inlineStr">
+      <is>
+        <t>Preparación de Retiro</t>
+      </is>
+    </oc>
+    <nc r="D74" t="inlineStr">
+      <is>
+        <t>Preparar Retiro</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B3:B87" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B3:D3" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="D3:D87" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B3:D87">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="107" sId="1">
+    <oc r="D3" t="inlineStr">
+      <is>
+        <t>Nuevo Nombre de Proceso</t>
+      </is>
+    </oc>
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>NUEVO NOMBRE DEL PROCESO</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="108" sId="1">
+    <oc r="C3" t="inlineStr">
+      <is>
+        <t>ACTIVIDAD</t>
+      </is>
+    </oc>
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>ANTIGUO NOMBRE DEL PROCESO</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{3F686087-C31C-4EEC-BE5B-AC011B73AA3F}" action="delete"/>
   <rcv guid="{3F686087-C31C-4EEC-BE5B-AC011B73AA3F}" action="add"/>
 </revisions>
 </file>
@@ -2341,961 +2441,960 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D87"/>
+  <dimension ref="B3:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9" t="s">
+    <row r="6" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
+    <row r="7" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
+    <row r="8" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="5" t="s">
+    <row r="77" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>167</v>
+      <c r="D87" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{3F686087-C31C-4EEC-BE5B-AC011B73AA3F}">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>

--- a/Procesos - Nuevos Nombres.xlsx
+++ b/Procesos - Nuevos Nombres.xlsx
@@ -2443,9 +2443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
